--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_222.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_222.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32987-d79616-Reviews-DoubleTree_by_Hilton_Hotel_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>684</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-Los-Angeles-Rosemead.h2630.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_222.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_222.xlsx
@@ -5035,7 +5035,7 @@
     <t>Broken, dirty...getting a renovation now...but that too will fade..they don't take care of their property! It was gross. I was told to tick my fingers up the shoot to get the ice out.  UNSANITARY...Every soda machine was SOLD OUT..More</t>
   </si>
   <si>
-    <t>ihightow</t>
+    <t>Irene H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79616-r261791627-DoubleTree_by_Hilton_Hotel_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -9105,7 +9105,7 @@
         <v>27388</v>
       </c>
       <c r="B2" t="n">
-        <v>140854</v>
+        <v>172010</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -9166,7 +9166,7 @@
         <v>27388</v>
       </c>
       <c r="B3" t="n">
-        <v>140855</v>
+        <v>172011</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -9237,7 +9237,7 @@
         <v>27388</v>
       </c>
       <c r="B4" t="n">
-        <v>140856</v>
+        <v>172012</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -9308,7 +9308,7 @@
         <v>27388</v>
       </c>
       <c r="B5" t="n">
-        <v>140857</v>
+        <v>172013</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -9379,7 +9379,7 @@
         <v>27388</v>
       </c>
       <c r="B6" t="n">
-        <v>140858</v>
+        <v>172014</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -9450,7 +9450,7 @@
         <v>27388</v>
       </c>
       <c r="B7" t="n">
-        <v>140859</v>
+        <v>172015</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -9521,7 +9521,7 @@
         <v>27388</v>
       </c>
       <c r="B8" t="n">
-        <v>140860</v>
+        <v>172016</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -9582,7 +9582,7 @@
         <v>27388</v>
       </c>
       <c r="B9" t="n">
-        <v>140861</v>
+        <v>172017</v>
       </c>
       <c r="C9" t="s">
         <v>95</v>
@@ -9799,7 +9799,7 @@
         <v>27388</v>
       </c>
       <c r="B12" t="n">
-        <v>140862</v>
+        <v>172018</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -9866,7 +9866,7 @@
         <v>27388</v>
       </c>
       <c r="B13" t="n">
-        <v>140863</v>
+        <v>172019</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -9937,7 +9937,7 @@
         <v>27388</v>
       </c>
       <c r="B14" t="n">
-        <v>140864</v>
+        <v>172020</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -10008,7 +10008,7 @@
         <v>27388</v>
       </c>
       <c r="B15" t="n">
-        <v>140865</v>
+        <v>172021</v>
       </c>
       <c r="C15" t="s">
         <v>140</v>
@@ -10079,7 +10079,7 @@
         <v>27388</v>
       </c>
       <c r="B16" t="n">
-        <v>140866</v>
+        <v>172022</v>
       </c>
       <c r="C16" t="s">
         <v>146</v>
@@ -10140,7 +10140,7 @@
         <v>27388</v>
       </c>
       <c r="B17" t="n">
-        <v>140867</v>
+        <v>172023</v>
       </c>
       <c r="C17" t="s">
         <v>152</v>
@@ -10211,7 +10211,7 @@
         <v>27388</v>
       </c>
       <c r="B18" t="n">
-        <v>140868</v>
+        <v>172024</v>
       </c>
       <c r="C18" t="s">
         <v>158</v>
@@ -10282,7 +10282,7 @@
         <v>27388</v>
       </c>
       <c r="B19" t="n">
-        <v>140869</v>
+        <v>172025</v>
       </c>
       <c r="C19" t="s">
         <v>164</v>
@@ -10349,7 +10349,7 @@
         <v>27388</v>
       </c>
       <c r="B20" t="n">
-        <v>140870</v>
+        <v>172026</v>
       </c>
       <c r="C20" t="s">
         <v>171</v>
@@ -10420,7 +10420,7 @@
         <v>27388</v>
       </c>
       <c r="B21" t="n">
-        <v>140871</v>
+        <v>172027</v>
       </c>
       <c r="C21" t="s">
         <v>178</v>
@@ -10491,7 +10491,7 @@
         <v>27388</v>
       </c>
       <c r="B22" t="n">
-        <v>140872</v>
+        <v>172028</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -10562,7 +10562,7 @@
         <v>27388</v>
       </c>
       <c r="B23" t="n">
-        <v>140873</v>
+        <v>172029</v>
       </c>
       <c r="C23" t="s">
         <v>190</v>
@@ -10769,7 +10769,7 @@
         <v>27388</v>
       </c>
       <c r="B26" t="n">
-        <v>140874</v>
+        <v>172030</v>
       </c>
       <c r="C26" t="s">
         <v>209</v>
@@ -10907,7 +10907,7 @@
         <v>27388</v>
       </c>
       <c r="B28" t="n">
-        <v>140875</v>
+        <v>172031</v>
       </c>
       <c r="C28" t="s">
         <v>222</v>
@@ -10978,7 +10978,7 @@
         <v>27388</v>
       </c>
       <c r="B29" t="n">
-        <v>140876</v>
+        <v>172032</v>
       </c>
       <c r="C29" t="s">
         <v>227</v>
@@ -11049,7 +11049,7 @@
         <v>27388</v>
       </c>
       <c r="B30" t="n">
-        <v>140877</v>
+        <v>172033</v>
       </c>
       <c r="C30" t="s">
         <v>234</v>
@@ -11120,7 +11120,7 @@
         <v>27388</v>
       </c>
       <c r="B31" t="n">
-        <v>140878</v>
+        <v>172034</v>
       </c>
       <c r="C31" t="s">
         <v>240</v>
@@ -11319,7 +11319,7 @@
         <v>27388</v>
       </c>
       <c r="B34" t="n">
-        <v>140879</v>
+        <v>172035</v>
       </c>
       <c r="C34" t="s">
         <v>260</v>
@@ -11386,7 +11386,7 @@
         <v>27388</v>
       </c>
       <c r="B35" t="n">
-        <v>140880</v>
+        <v>172036</v>
       </c>
       <c r="C35" t="s">
         <v>268</v>
@@ -11457,7 +11457,7 @@
         <v>27388</v>
       </c>
       <c r="B36" t="n">
-        <v>140881</v>
+        <v>172037</v>
       </c>
       <c r="C36" t="s">
         <v>274</v>
@@ -11528,7 +11528,7 @@
         <v>27388</v>
       </c>
       <c r="B37" t="n">
-        <v>140882</v>
+        <v>172038</v>
       </c>
       <c r="C37" t="s">
         <v>280</v>
@@ -11589,7 +11589,7 @@
         <v>27388</v>
       </c>
       <c r="B38" t="n">
-        <v>140883</v>
+        <v>172039</v>
       </c>
       <c r="C38" t="s">
         <v>287</v>
@@ -11660,7 +11660,7 @@
         <v>27388</v>
       </c>
       <c r="B39" t="n">
-        <v>140884</v>
+        <v>172040</v>
       </c>
       <c r="C39" t="s">
         <v>293</v>
@@ -11731,7 +11731,7 @@
         <v>27388</v>
       </c>
       <c r="B40" t="n">
-        <v>140885</v>
+        <v>172041</v>
       </c>
       <c r="C40" t="s">
         <v>299</v>
@@ -11802,7 +11802,7 @@
         <v>27388</v>
       </c>
       <c r="B41" t="n">
-        <v>140886</v>
+        <v>172042</v>
       </c>
       <c r="C41" t="s">
         <v>305</v>
@@ -11873,7 +11873,7 @@
         <v>27388</v>
       </c>
       <c r="B42" t="n">
-        <v>140887</v>
+        <v>172043</v>
       </c>
       <c r="C42" t="s">
         <v>311</v>
@@ -11944,7 +11944,7 @@
         <v>27388</v>
       </c>
       <c r="B43" t="n">
-        <v>140888</v>
+        <v>172044</v>
       </c>
       <c r="C43" t="s">
         <v>318</v>
@@ -12015,7 +12015,7 @@
         <v>27388</v>
       </c>
       <c r="B44" t="n">
-        <v>140889</v>
+        <v>172045</v>
       </c>
       <c r="C44" t="s">
         <v>324</v>
@@ -12143,7 +12143,7 @@
         <v>27388</v>
       </c>
       <c r="B46" t="n">
-        <v>140890</v>
+        <v>172046</v>
       </c>
       <c r="C46" t="s">
         <v>339</v>
@@ -12214,7 +12214,7 @@
         <v>27388</v>
       </c>
       <c r="B47" t="n">
-        <v>140891</v>
+        <v>172047</v>
       </c>
       <c r="C47" t="s">
         <v>344</v>
@@ -12285,7 +12285,7 @@
         <v>27388</v>
       </c>
       <c r="B48" t="n">
-        <v>140892</v>
+        <v>172048</v>
       </c>
       <c r="C48" t="s">
         <v>350</v>
@@ -12488,7 +12488,7 @@
         <v>27388</v>
       </c>
       <c r="B51" t="n">
-        <v>140893</v>
+        <v>172049</v>
       </c>
       <c r="C51" t="s">
         <v>369</v>
@@ -12559,7 +12559,7 @@
         <v>27388</v>
       </c>
       <c r="B52" t="n">
-        <v>140894</v>
+        <v>172050</v>
       </c>
       <c r="C52" t="s">
         <v>375</v>
@@ -12630,7 +12630,7 @@
         <v>27388</v>
       </c>
       <c r="B53" t="n">
-        <v>140895</v>
+        <v>172051</v>
       </c>
       <c r="C53" t="s">
         <v>380</v>
@@ -12701,7 +12701,7 @@
         <v>27388</v>
       </c>
       <c r="B54" t="n">
-        <v>140896</v>
+        <v>140891</v>
       </c>
       <c r="C54" t="s">
         <v>386</v>
@@ -12766,7 +12766,7 @@
         <v>27388</v>
       </c>
       <c r="B55" t="n">
-        <v>140897</v>
+        <v>172052</v>
       </c>
       <c r="C55" t="s">
         <v>392</v>
@@ -12837,7 +12837,7 @@
         <v>27388</v>
       </c>
       <c r="B56" t="n">
-        <v>140898</v>
+        <v>172053</v>
       </c>
       <c r="C56" t="s">
         <v>397</v>
@@ -12975,7 +12975,7 @@
         <v>27388</v>
       </c>
       <c r="B58" t="n">
-        <v>140899</v>
+        <v>172054</v>
       </c>
       <c r="C58" t="s">
         <v>409</v>
@@ -13046,7 +13046,7 @@
         <v>27388</v>
       </c>
       <c r="B59" t="n">
-        <v>140900</v>
+        <v>172055</v>
       </c>
       <c r="C59" t="s">
         <v>415</v>
@@ -13117,7 +13117,7 @@
         <v>27388</v>
       </c>
       <c r="B60" t="n">
-        <v>140901</v>
+        <v>172056</v>
       </c>
       <c r="C60" t="s">
         <v>422</v>
@@ -13259,7 +13259,7 @@
         <v>27388</v>
       </c>
       <c r="B62" t="n">
-        <v>140902</v>
+        <v>172057</v>
       </c>
       <c r="C62" t="s">
         <v>434</v>
@@ -13330,7 +13330,7 @@
         <v>27388</v>
       </c>
       <c r="B63" t="n">
-        <v>140903</v>
+        <v>172058</v>
       </c>
       <c r="C63" t="s">
         <v>440</v>
@@ -13401,7 +13401,7 @@
         <v>27388</v>
       </c>
       <c r="B64" t="n">
-        <v>140904</v>
+        <v>172059</v>
       </c>
       <c r="C64" t="s">
         <v>446</v>
@@ -13533,7 +13533,7 @@
         <v>27388</v>
       </c>
       <c r="B66" t="n">
-        <v>140905</v>
+        <v>172060</v>
       </c>
       <c r="C66" t="s">
         <v>459</v>
@@ -13669,7 +13669,7 @@
         <v>27388</v>
       </c>
       <c r="B68" t="n">
-        <v>140906</v>
+        <v>172061</v>
       </c>
       <c r="C68" t="s">
         <v>470</v>
@@ -13736,7 +13736,7 @@
         <v>27388</v>
       </c>
       <c r="B69" t="n">
-        <v>140907</v>
+        <v>172062</v>
       </c>
       <c r="C69" t="s">
         <v>478</v>
@@ -13807,7 +13807,7 @@
         <v>27388</v>
       </c>
       <c r="B70" t="n">
-        <v>140908</v>
+        <v>172063</v>
       </c>
       <c r="C70" t="s">
         <v>484</v>
@@ -13878,7 +13878,7 @@
         <v>27388</v>
       </c>
       <c r="B71" t="n">
-        <v>140909</v>
+        <v>172064</v>
       </c>
       <c r="C71" t="s">
         <v>491</v>
@@ -13949,7 +13949,7 @@
         <v>27388</v>
       </c>
       <c r="B72" t="n">
-        <v>140910</v>
+        <v>172065</v>
       </c>
       <c r="C72" t="s">
         <v>497</v>
@@ -14020,7 +14020,7 @@
         <v>27388</v>
       </c>
       <c r="B73" t="n">
-        <v>140911</v>
+        <v>172066</v>
       </c>
       <c r="C73" t="s">
         <v>503</v>
@@ -14162,7 +14162,7 @@
         <v>27388</v>
       </c>
       <c r="B75" t="n">
-        <v>140912</v>
+        <v>172067</v>
       </c>
       <c r="C75" t="s">
         <v>515</v>
@@ -14233,7 +14233,7 @@
         <v>27388</v>
       </c>
       <c r="B76" t="n">
-        <v>140913</v>
+        <v>172068</v>
       </c>
       <c r="C76" t="s">
         <v>520</v>
@@ -14304,7 +14304,7 @@
         <v>27388</v>
       </c>
       <c r="B77" t="n">
-        <v>140914</v>
+        <v>172069</v>
       </c>
       <c r="C77" t="s">
         <v>526</v>
@@ -14375,7 +14375,7 @@
         <v>27388</v>
       </c>
       <c r="B78" t="n">
-        <v>140915</v>
+        <v>172070</v>
       </c>
       <c r="C78" t="s">
         <v>532</v>
@@ -14432,7 +14432,7 @@
         <v>27388</v>
       </c>
       <c r="B79" t="n">
-        <v>140916</v>
+        <v>172071</v>
       </c>
       <c r="C79" t="s">
         <v>537</v>
@@ -14503,7 +14503,7 @@
         <v>27388</v>
       </c>
       <c r="B80" t="n">
-        <v>140917</v>
+        <v>172072</v>
       </c>
       <c r="C80" t="s">
         <v>543</v>
@@ -14574,7 +14574,7 @@
         <v>27388</v>
       </c>
       <c r="B81" t="n">
-        <v>140918</v>
+        <v>172073</v>
       </c>
       <c r="C81" t="s">
         <v>550</v>
@@ -14716,7 +14716,7 @@
         <v>27388</v>
       </c>
       <c r="B83" t="n">
-        <v>140919</v>
+        <v>172074</v>
       </c>
       <c r="C83" t="s">
         <v>562</v>
@@ -14787,7 +14787,7 @@
         <v>27388</v>
       </c>
       <c r="B84" t="n">
-        <v>140920</v>
+        <v>172075</v>
       </c>
       <c r="C84" t="s">
         <v>568</v>
@@ -14854,7 +14854,7 @@
         <v>27388</v>
       </c>
       <c r="B85" t="n">
-        <v>140921</v>
+        <v>172076</v>
       </c>
       <c r="C85" t="s">
         <v>575</v>
@@ -14996,7 +14996,7 @@
         <v>27388</v>
       </c>
       <c r="B87" t="n">
-        <v>140922</v>
+        <v>172077</v>
       </c>
       <c r="C87" t="s">
         <v>589</v>
@@ -15067,7 +15067,7 @@
         <v>27388</v>
       </c>
       <c r="B88" t="n">
-        <v>140923</v>
+        <v>172078</v>
       </c>
       <c r="C88" t="s">
         <v>595</v>
@@ -15138,7 +15138,7 @@
         <v>27388</v>
       </c>
       <c r="B89" t="n">
-        <v>140924</v>
+        <v>172079</v>
       </c>
       <c r="C89" t="s">
         <v>601</v>
@@ -15276,7 +15276,7 @@
         <v>27388</v>
       </c>
       <c r="B91" t="n">
-        <v>140925</v>
+        <v>172080</v>
       </c>
       <c r="C91" t="s">
         <v>614</v>
@@ -15343,7 +15343,7 @@
         <v>27388</v>
       </c>
       <c r="B92" t="n">
-        <v>140926</v>
+        <v>172081</v>
       </c>
       <c r="C92" t="s">
         <v>621</v>
@@ -15414,7 +15414,7 @@
         <v>27388</v>
       </c>
       <c r="B93" t="n">
-        <v>140927</v>
+        <v>172082</v>
       </c>
       <c r="C93" t="s">
         <v>627</v>
@@ -15475,7 +15475,7 @@
         <v>27388</v>
       </c>
       <c r="B94" t="n">
-        <v>140928</v>
+        <v>172083</v>
       </c>
       <c r="C94" t="s">
         <v>633</v>
@@ -15536,7 +15536,7 @@
         <v>27388</v>
       </c>
       <c r="B95" t="n">
-        <v>140929</v>
+        <v>172084</v>
       </c>
       <c r="C95" t="s">
         <v>639</v>
@@ -15810,7 +15810,7 @@
         <v>27388</v>
       </c>
       <c r="B99" t="n">
-        <v>140930</v>
+        <v>172085</v>
       </c>
       <c r="C99" t="s">
         <v>664</v>
@@ -15881,7 +15881,7 @@
         <v>27388</v>
       </c>
       <c r="B100" t="n">
-        <v>140931</v>
+        <v>172086</v>
       </c>
       <c r="C100" t="s">
         <v>670</v>
@@ -16023,7 +16023,7 @@
         <v>27388</v>
       </c>
       <c r="B102" t="n">
-        <v>140932</v>
+        <v>172087</v>
       </c>
       <c r="C102" t="s">
         <v>682</v>
@@ -16165,7 +16165,7 @@
         <v>27388</v>
       </c>
       <c r="B104" t="n">
-        <v>140933</v>
+        <v>172088</v>
       </c>
       <c r="C104" t="s">
         <v>695</v>
@@ -16222,7 +16222,7 @@
         <v>27388</v>
       </c>
       <c r="B105" t="n">
-        <v>140934</v>
+        <v>172089</v>
       </c>
       <c r="C105" t="s">
         <v>701</v>
@@ -16293,7 +16293,7 @@
         <v>27388</v>
       </c>
       <c r="B106" t="n">
-        <v>140935</v>
+        <v>172090</v>
       </c>
       <c r="C106" t="s">
         <v>707</v>
@@ -16364,7 +16364,7 @@
         <v>27388</v>
       </c>
       <c r="B107" t="n">
-        <v>140936</v>
+        <v>172091</v>
       </c>
       <c r="C107" t="s">
         <v>713</v>
@@ -16506,7 +16506,7 @@
         <v>27388</v>
       </c>
       <c r="B109" t="n">
-        <v>140937</v>
+        <v>172092</v>
       </c>
       <c r="C109" t="s">
         <v>724</v>
@@ -16577,7 +16577,7 @@
         <v>27388</v>
       </c>
       <c r="B110" t="n">
-        <v>140938</v>
+        <v>172093</v>
       </c>
       <c r="C110" t="s">
         <v>730</v>
@@ -16790,7 +16790,7 @@
         <v>27388</v>
       </c>
       <c r="B113" t="n">
-        <v>140939</v>
+        <v>172094</v>
       </c>
       <c r="C113" t="s">
         <v>748</v>
@@ -16861,7 +16861,7 @@
         <v>27388</v>
       </c>
       <c r="B114" t="n">
-        <v>140940</v>
+        <v>172095</v>
       </c>
       <c r="C114" t="s">
         <v>754</v>
@@ -17003,7 +17003,7 @@
         <v>27388</v>
       </c>
       <c r="B116" t="n">
-        <v>140941</v>
+        <v>172096</v>
       </c>
       <c r="C116" t="s">
         <v>766</v>
@@ -17064,7 +17064,7 @@
         <v>27388</v>
       </c>
       <c r="B117" t="n">
-        <v>140942</v>
+        <v>172097</v>
       </c>
       <c r="C117" t="s">
         <v>773</v>
@@ -17131,7 +17131,7 @@
         <v>27388</v>
       </c>
       <c r="B118" t="n">
-        <v>140943</v>
+        <v>172098</v>
       </c>
       <c r="C118" t="s">
         <v>779</v>
@@ -17202,7 +17202,7 @@
         <v>27388</v>
       </c>
       <c r="B119" t="n">
-        <v>140944</v>
+        <v>172099</v>
       </c>
       <c r="C119" t="s">
         <v>785</v>
@@ -17344,7 +17344,7 @@
         <v>27388</v>
       </c>
       <c r="B121" t="n">
-        <v>140945</v>
+        <v>172100</v>
       </c>
       <c r="C121" t="s">
         <v>797</v>
@@ -17415,7 +17415,7 @@
         <v>27388</v>
       </c>
       <c r="B122" t="n">
-        <v>140946</v>
+        <v>172101</v>
       </c>
       <c r="C122" t="s">
         <v>802</v>
@@ -17486,7 +17486,7 @@
         <v>27388</v>
       </c>
       <c r="B123" t="n">
-        <v>140947</v>
+        <v>140962</v>
       </c>
       <c r="C123" t="s">
         <v>807</v>
@@ -17628,7 +17628,7 @@
         <v>27388</v>
       </c>
       <c r="B125" t="n">
-        <v>140948</v>
+        <v>172102</v>
       </c>
       <c r="C125" t="s">
         <v>819</v>
@@ -17699,7 +17699,7 @@
         <v>27388</v>
       </c>
       <c r="B126" t="n">
-        <v>140949</v>
+        <v>140895</v>
       </c>
       <c r="C126" t="s">
         <v>825</v>
@@ -17835,7 +17835,7 @@
         <v>27388</v>
       </c>
       <c r="B128" t="n">
-        <v>140950</v>
+        <v>172103</v>
       </c>
       <c r="C128" t="s">
         <v>837</v>
@@ -17896,7 +17896,7 @@
         <v>27388</v>
       </c>
       <c r="B129" t="n">
-        <v>140951</v>
+        <v>172104</v>
       </c>
       <c r="C129" t="s">
         <v>843</v>
@@ -17961,7 +17961,7 @@
         <v>27388</v>
       </c>
       <c r="B130" t="n">
-        <v>140952</v>
+        <v>172105</v>
       </c>
       <c r="C130" t="s">
         <v>849</v>
@@ -18028,7 +18028,7 @@
         <v>27388</v>
       </c>
       <c r="B131" t="n">
-        <v>140953</v>
+        <v>172106</v>
       </c>
       <c r="C131" t="s">
         <v>854</v>
@@ -18170,7 +18170,7 @@
         <v>27388</v>
       </c>
       <c r="B133" t="n">
-        <v>140954</v>
+        <v>172107</v>
       </c>
       <c r="C133" t="s">
         <v>866</v>
@@ -18302,7 +18302,7 @@
         <v>27388</v>
       </c>
       <c r="B135" t="n">
-        <v>140955</v>
+        <v>172108</v>
       </c>
       <c r="C135" t="s">
         <v>877</v>
@@ -18373,7 +18373,7 @@
         <v>27388</v>
       </c>
       <c r="B136" t="n">
-        <v>140956</v>
+        <v>172109</v>
       </c>
       <c r="C136" t="s">
         <v>882</v>
@@ -18515,7 +18515,7 @@
         <v>27388</v>
       </c>
       <c r="B138" t="n">
-        <v>140957</v>
+        <v>172110</v>
       </c>
       <c r="C138" t="s">
         <v>894</v>
@@ -18647,7 +18647,7 @@
         <v>27388</v>
       </c>
       <c r="B140" t="n">
-        <v>140958</v>
+        <v>172111</v>
       </c>
       <c r="C140" t="s">
         <v>906</v>
@@ -18714,7 +18714,7 @@
         <v>27388</v>
       </c>
       <c r="B141" t="n">
-        <v>140959</v>
+        <v>172112</v>
       </c>
       <c r="C141" t="s">
         <v>913</v>
@@ -18775,7 +18775,7 @@
         <v>27388</v>
       </c>
       <c r="B142" t="n">
-        <v>140960</v>
+        <v>172113</v>
       </c>
       <c r="C142" t="s">
         <v>920</v>
@@ -18917,7 +18917,7 @@
         <v>27388</v>
       </c>
       <c r="B144" t="n">
-        <v>140961</v>
+        <v>172114</v>
       </c>
       <c r="C144" t="s">
         <v>932</v>
@@ -18988,7 +18988,7 @@
         <v>27388</v>
       </c>
       <c r="B145" t="n">
-        <v>140962</v>
+        <v>172115</v>
       </c>
       <c r="C145" t="s">
         <v>938</v>
@@ -19120,7 +19120,7 @@
         <v>27388</v>
       </c>
       <c r="B147" t="n">
-        <v>140963</v>
+        <v>172116</v>
       </c>
       <c r="C147" t="s">
         <v>950</v>
@@ -19191,7 +19191,7 @@
         <v>27388</v>
       </c>
       <c r="B148" t="n">
-        <v>140964</v>
+        <v>172117</v>
       </c>
       <c r="C148" t="s">
         <v>956</v>
@@ -19260,7 +19260,7 @@
         <v>27388</v>
       </c>
       <c r="B149" t="n">
-        <v>140965</v>
+        <v>172118</v>
       </c>
       <c r="C149" t="s">
         <v>964</v>
@@ -19331,7 +19331,7 @@
         <v>27388</v>
       </c>
       <c r="B150" t="n">
-        <v>140966</v>
+        <v>172119</v>
       </c>
       <c r="C150" t="s">
         <v>970</v>
@@ -19402,7 +19402,7 @@
         <v>27388</v>
       </c>
       <c r="B151" t="n">
-        <v>140967</v>
+        <v>172120</v>
       </c>
       <c r="C151" t="s">
         <v>976</v>
@@ -19477,7 +19477,7 @@
         <v>27388</v>
       </c>
       <c r="B152" t="n">
-        <v>140968</v>
+        <v>172121</v>
       </c>
       <c r="C152" t="s">
         <v>984</v>
@@ -19623,7 +19623,7 @@
         <v>27388</v>
       </c>
       <c r="B154" t="n">
-        <v>140969</v>
+        <v>172122</v>
       </c>
       <c r="C154" t="s">
         <v>998</v>
@@ -19694,7 +19694,7 @@
         <v>27388</v>
       </c>
       <c r="B155" t="n">
-        <v>140970</v>
+        <v>172123</v>
       </c>
       <c r="C155" t="s">
         <v>1004</v>
@@ -19836,7 +19836,7 @@
         <v>27388</v>
       </c>
       <c r="B157" t="n">
-        <v>140971</v>
+        <v>172124</v>
       </c>
       <c r="C157" t="s">
         <v>1017</v>
@@ -19907,7 +19907,7 @@
         <v>27388</v>
       </c>
       <c r="B158" t="n">
-        <v>140972</v>
+        <v>172125</v>
       </c>
       <c r="C158" t="s">
         <v>1023</v>
@@ -19978,7 +19978,7 @@
         <v>27388</v>
       </c>
       <c r="B159" t="n">
-        <v>140895</v>
+        <v>140891</v>
       </c>
       <c r="C159" t="s">
         <v>386</v>
@@ -20043,7 +20043,7 @@
         <v>27388</v>
       </c>
       <c r="B160" t="n">
-        <v>140973</v>
+        <v>172126</v>
       </c>
       <c r="C160" t="s">
         <v>1035</v>
@@ -20114,7 +20114,7 @@
         <v>27388</v>
       </c>
       <c r="B161" t="n">
-        <v>140974</v>
+        <v>172127</v>
       </c>
       <c r="C161" t="s">
         <v>1041</v>
@@ -20256,7 +20256,7 @@
         <v>27388</v>
       </c>
       <c r="B163" t="n">
-        <v>140975</v>
+        <v>172128</v>
       </c>
       <c r="C163" t="s">
         <v>1057</v>
@@ -20323,7 +20323,7 @@
         <v>27388</v>
       </c>
       <c r="B164" t="n">
-        <v>140976</v>
+        <v>172129</v>
       </c>
       <c r="C164" t="s">
         <v>1063</v>
@@ -20451,7 +20451,7 @@
         <v>27388</v>
       </c>
       <c r="B166" t="n">
-        <v>140977</v>
+        <v>172130</v>
       </c>
       <c r="C166" t="s">
         <v>1074</v>
@@ -20583,7 +20583,7 @@
         <v>27388</v>
       </c>
       <c r="B168" t="n">
-        <v>140948</v>
+        <v>140895</v>
       </c>
       <c r="C168" t="s">
         <v>825</v>
@@ -20654,7 +20654,7 @@
         <v>27388</v>
       </c>
       <c r="B169" t="n">
-        <v>140978</v>
+        <v>172131</v>
       </c>
       <c r="C169" t="s">
         <v>1091</v>
@@ -20725,7 +20725,7 @@
         <v>27388</v>
       </c>
       <c r="B170" t="n">
-        <v>140979</v>
+        <v>172132</v>
       </c>
       <c r="C170" t="s">
         <v>1097</v>
@@ -20867,7 +20867,7 @@
         <v>27388</v>
       </c>
       <c r="B172" t="n">
-        <v>140980</v>
+        <v>172133</v>
       </c>
       <c r="C172" t="s">
         <v>1109</v>
@@ -21013,7 +21013,7 @@
         <v>27388</v>
       </c>
       <c r="B174" t="n">
-        <v>140981</v>
+        <v>172134</v>
       </c>
       <c r="C174" t="s">
         <v>1123</v>
@@ -21226,7 +21226,7 @@
         <v>27388</v>
       </c>
       <c r="B177" t="n">
-        <v>140982</v>
+        <v>172135</v>
       </c>
       <c r="C177" t="s">
         <v>1139</v>
@@ -21439,7 +21439,7 @@
         <v>27388</v>
       </c>
       <c r="B180" t="n">
-        <v>140983</v>
+        <v>172136</v>
       </c>
       <c r="C180" t="s">
         <v>1156</v>
@@ -21510,7 +21510,7 @@
         <v>27388</v>
       </c>
       <c r="B181" t="n">
-        <v>140984</v>
+        <v>172137</v>
       </c>
       <c r="C181" t="s">
         <v>1162</v>
@@ -21567,7 +21567,7 @@
         <v>27388</v>
       </c>
       <c r="B182" t="n">
-        <v>140985</v>
+        <v>172138</v>
       </c>
       <c r="C182" t="s">
         <v>1168</v>
@@ -21638,7 +21638,7 @@
         <v>27388</v>
       </c>
       <c r="B183" t="n">
-        <v>140986</v>
+        <v>172139</v>
       </c>
       <c r="C183" t="s">
         <v>1174</v>
@@ -21703,7 +21703,7 @@
         <v>27388</v>
       </c>
       <c r="B184" t="n">
-        <v>140987</v>
+        <v>172140</v>
       </c>
       <c r="C184" t="s">
         <v>1181</v>
@@ -21774,7 +21774,7 @@
         <v>27388</v>
       </c>
       <c r="B185" t="n">
-        <v>140988</v>
+        <v>172141</v>
       </c>
       <c r="C185" t="s">
         <v>1187</v>
@@ -21835,7 +21835,7 @@
         <v>27388</v>
       </c>
       <c r="B186" t="n">
-        <v>140989</v>
+        <v>172142</v>
       </c>
       <c r="C186" t="s">
         <v>1194</v>
@@ -21967,7 +21967,7 @@
         <v>27388</v>
       </c>
       <c r="B188" t="n">
-        <v>140990</v>
+        <v>172143</v>
       </c>
       <c r="C188" t="s">
         <v>1205</v>
@@ -22038,7 +22038,7 @@
         <v>27388</v>
       </c>
       <c r="B189" t="n">
-        <v>140991</v>
+        <v>172144</v>
       </c>
       <c r="C189" t="s">
         <v>1212</v>
@@ -22109,7 +22109,7 @@
         <v>27388</v>
       </c>
       <c r="B190" t="n">
-        <v>140992</v>
+        <v>172145</v>
       </c>
       <c r="C190" t="s">
         <v>1218</v>
@@ -22180,7 +22180,7 @@
         <v>27388</v>
       </c>
       <c r="B191" t="n">
-        <v>140993</v>
+        <v>172146</v>
       </c>
       <c r="C191" t="s">
         <v>1224</v>
@@ -22320,7 +22320,7 @@
         <v>27388</v>
       </c>
       <c r="B193" t="n">
-        <v>140994</v>
+        <v>172147</v>
       </c>
       <c r="C193" t="s">
         <v>1241</v>
@@ -22395,7 +22395,7 @@
         <v>27388</v>
       </c>
       <c r="B194" t="n">
-        <v>140995</v>
+        <v>172148</v>
       </c>
       <c r="C194" t="s">
         <v>1250</v>
@@ -22470,7 +22470,7 @@
         <v>27388</v>
       </c>
       <c r="B195" t="n">
-        <v>140996</v>
+        <v>172149</v>
       </c>
       <c r="C195" t="s">
         <v>1259</v>
@@ -22685,7 +22685,7 @@
         <v>27388</v>
       </c>
       <c r="B198" t="n">
-        <v>140997</v>
+        <v>172150</v>
       </c>
       <c r="C198" t="s">
         <v>1280</v>
@@ -22760,7 +22760,7 @@
         <v>27388</v>
       </c>
       <c r="B199" t="n">
-        <v>140998</v>
+        <v>172151</v>
       </c>
       <c r="C199" t="s">
         <v>1288</v>
@@ -22902,7 +22902,7 @@
         <v>27388</v>
       </c>
       <c r="B201" t="n">
-        <v>140999</v>
+        <v>172152</v>
       </c>
       <c r="C201" t="s">
         <v>1301</v>
@@ -22971,7 +22971,7 @@
         <v>27388</v>
       </c>
       <c r="B202" t="n">
-        <v>141000</v>
+        <v>172153</v>
       </c>
       <c r="C202" t="s">
         <v>1311</v>
@@ -23466,7 +23466,7 @@
         <v>27388</v>
       </c>
       <c r="B209" t="n">
-        <v>141001</v>
+        <v>172154</v>
       </c>
       <c r="C209" t="s">
         <v>1370</v>
@@ -23537,7 +23537,7 @@
         <v>27388</v>
       </c>
       <c r="B210" t="n">
-        <v>141002</v>
+        <v>172155</v>
       </c>
       <c r="C210" t="s">
         <v>1379</v>
@@ -23602,7 +23602,7 @@
         <v>27388</v>
       </c>
       <c r="B211" t="n">
-        <v>141003</v>
+        <v>172156</v>
       </c>
       <c r="C211" t="s">
         <v>1387</v>
@@ -23677,7 +23677,7 @@
         <v>27388</v>
       </c>
       <c r="B212" t="n">
-        <v>141004</v>
+        <v>172157</v>
       </c>
       <c r="C212" t="s">
         <v>1393</v>
@@ -23748,7 +23748,7 @@
         <v>27388</v>
       </c>
       <c r="B213" t="n">
-        <v>141005</v>
+        <v>172158</v>
       </c>
       <c r="C213" t="s">
         <v>1402</v>
@@ -23823,7 +23823,7 @@
         <v>27388</v>
       </c>
       <c r="B214" t="n">
-        <v>141006</v>
+        <v>172159</v>
       </c>
       <c r="C214" t="s">
         <v>1408</v>
@@ -23892,7 +23892,7 @@
         <v>27388</v>
       </c>
       <c r="B215" t="n">
-        <v>141007</v>
+        <v>172160</v>
       </c>
       <c r="C215" t="s">
         <v>1415</v>
@@ -23967,7 +23967,7 @@
         <v>27388</v>
       </c>
       <c r="B216" t="n">
-        <v>141008</v>
+        <v>172161</v>
       </c>
       <c r="C216" t="s">
         <v>1424</v>
@@ -24192,7 +24192,7 @@
         <v>27388</v>
       </c>
       <c r="B219" t="n">
-        <v>141009</v>
+        <v>172162</v>
       </c>
       <c r="C219" t="s">
         <v>1449</v>
@@ -24263,7 +24263,7 @@
         <v>27388</v>
       </c>
       <c r="B220" t="n">
-        <v>141010</v>
+        <v>172163</v>
       </c>
       <c r="C220" t="s">
         <v>1456</v>
@@ -24338,7 +24338,7 @@
         <v>27388</v>
       </c>
       <c r="B221" t="n">
-        <v>141011</v>
+        <v>172164</v>
       </c>
       <c r="C221" t="s">
         <v>1465</v>
@@ -24413,7 +24413,7 @@
         <v>27388</v>
       </c>
       <c r="B222" t="n">
-        <v>141012</v>
+        <v>172165</v>
       </c>
       <c r="C222" t="s">
         <v>1474</v>
@@ -24488,7 +24488,7 @@
         <v>27388</v>
       </c>
       <c r="B223" t="n">
-        <v>141013</v>
+        <v>172166</v>
       </c>
       <c r="C223" t="s">
         <v>1484</v>
@@ -24563,7 +24563,7 @@
         <v>27388</v>
       </c>
       <c r="B224" t="n">
-        <v>141014</v>
+        <v>172167</v>
       </c>
       <c r="C224" t="s">
         <v>1492</v>
@@ -24632,7 +24632,7 @@
         <v>27388</v>
       </c>
       <c r="B225" t="n">
-        <v>141015</v>
+        <v>172168</v>
       </c>
       <c r="C225" t="s">
         <v>1501</v>
@@ -24707,7 +24707,7 @@
         <v>27388</v>
       </c>
       <c r="B226" t="n">
-        <v>141016</v>
+        <v>172169</v>
       </c>
       <c r="C226" t="s">
         <v>1510</v>
@@ -24776,7 +24776,7 @@
         <v>27388</v>
       </c>
       <c r="B227" t="n">
-        <v>141017</v>
+        <v>172170</v>
       </c>
       <c r="C227" t="s">
         <v>1519</v>
@@ -24847,7 +24847,7 @@
         <v>27388</v>
       </c>
       <c r="B228" t="n">
-        <v>141018</v>
+        <v>140923</v>
       </c>
       <c r="C228" t="s">
         <v>1526</v>
@@ -24922,7 +24922,7 @@
         <v>27388</v>
       </c>
       <c r="B229" t="n">
-        <v>141019</v>
+        <v>172171</v>
       </c>
       <c r="C229" t="s">
         <v>1533</v>
@@ -24993,7 +24993,7 @@
         <v>27388</v>
       </c>
       <c r="B230" t="n">
-        <v>141020</v>
+        <v>172172</v>
       </c>
       <c r="C230" t="s">
         <v>1542</v>
@@ -25133,7 +25133,7 @@
         <v>27388</v>
       </c>
       <c r="B232" t="n">
-        <v>141021</v>
+        <v>172173</v>
       </c>
       <c r="C232" t="s">
         <v>1558</v>
@@ -25340,7 +25340,7 @@
         <v>27388</v>
       </c>
       <c r="B235" t="n">
-        <v>141022</v>
+        <v>172174</v>
       </c>
       <c r="C235" t="s">
         <v>1583</v>
@@ -25470,7 +25470,7 @@
         <v>27388</v>
       </c>
       <c r="B237" t="n">
-        <v>141023</v>
+        <v>172175</v>
       </c>
       <c r="C237" t="s">
         <v>1601</v>
@@ -25614,7 +25614,7 @@
         <v>27388</v>
       </c>
       <c r="B239" t="n">
-        <v>141024</v>
+        <v>172176</v>
       </c>
       <c r="C239" t="s">
         <v>1617</v>
@@ -25689,7 +25689,7 @@
         <v>27388</v>
       </c>
       <c r="B240" t="n">
-        <v>141025</v>
+        <v>172177</v>
       </c>
       <c r="C240" t="s">
         <v>1626</v>
@@ -25839,7 +25839,7 @@
         <v>27388</v>
       </c>
       <c r="B242" t="n">
-        <v>141026</v>
+        <v>172178</v>
       </c>
       <c r="C242" t="s">
         <v>1640</v>
@@ -25904,7 +25904,7 @@
         <v>27388</v>
       </c>
       <c r="B243" t="n">
-        <v>141027</v>
+        <v>172179</v>
       </c>
       <c r="C243" t="s">
         <v>1649</v>
@@ -26054,7 +26054,7 @@
         <v>27388</v>
       </c>
       <c r="B245" t="n">
-        <v>141028</v>
+        <v>101871</v>
       </c>
       <c r="C245" t="s">
         <v>1663</v>
@@ -26198,7 +26198,7 @@
         <v>27388</v>
       </c>
       <c r="B247" t="n">
-        <v>141029</v>
+        <v>172180</v>
       </c>
       <c r="C247" t="s">
         <v>1678</v>
@@ -26273,7 +26273,7 @@
         <v>27388</v>
       </c>
       <c r="B248" t="n">
-        <v>141030</v>
+        <v>172181</v>
       </c>
       <c r="C248" t="s">
         <v>1686</v>
@@ -26348,7 +26348,7 @@
         <v>27388</v>
       </c>
       <c r="B249" t="n">
-        <v>141017</v>
+        <v>140923</v>
       </c>
       <c r="C249" t="s">
         <v>1526</v>
@@ -26553,7 +26553,7 @@
         <v>27388</v>
       </c>
       <c r="B252" t="n">
-        <v>141031</v>
+        <v>172182</v>
       </c>
       <c r="C252" t="s">
         <v>1717</v>
@@ -26691,7 +26691,7 @@
         <v>27388</v>
       </c>
       <c r="B254" t="n">
-        <v>141032</v>
+        <v>172183</v>
       </c>
       <c r="C254" t="s">
         <v>1732</v>
@@ -26902,7 +26902,7 @@
         <v>27388</v>
       </c>
       <c r="B257" t="n">
-        <v>141033</v>
+        <v>142688</v>
       </c>
       <c r="C257" t="s">
         <v>1759</v>
@@ -27048,7 +27048,7 @@
         <v>27388</v>
       </c>
       <c r="B259" t="n">
-        <v>141034</v>
+        <v>172184</v>
       </c>
       <c r="C259" t="s">
         <v>1776</v>
@@ -27190,7 +27190,7 @@
         <v>27388</v>
       </c>
       <c r="B261" t="n">
-        <v>141035</v>
+        <v>172185</v>
       </c>
       <c r="C261" t="s">
         <v>1792</v>
@@ -27265,7 +27265,7 @@
         <v>27388</v>
       </c>
       <c r="B262" t="n">
-        <v>141036</v>
+        <v>172186</v>
       </c>
       <c r="C262" t="s">
         <v>1799</v>
@@ -27336,7 +27336,7 @@
         <v>27388</v>
       </c>
       <c r="B263" t="n">
-        <v>141037</v>
+        <v>172187</v>
       </c>
       <c r="C263" t="s">
         <v>1808</v>
@@ -27482,7 +27482,7 @@
         <v>27388</v>
       </c>
       <c r="B265" t="n">
-        <v>141038</v>
+        <v>172188</v>
       </c>
       <c r="C265" t="s">
         <v>1824</v>
@@ -27999,7 +27999,7 @@
         <v>27388</v>
       </c>
       <c r="B272" t="n">
-        <v>141039</v>
+        <v>172189</v>
       </c>
       <c r="C272" t="s">
         <v>1886</v>
@@ -28074,7 +28074,7 @@
         <v>27388</v>
       </c>
       <c r="B273" t="n">
-        <v>141040</v>
+        <v>172190</v>
       </c>
       <c r="C273" t="s">
         <v>1894</v>
@@ -28149,7 +28149,7 @@
         <v>27388</v>
       </c>
       <c r="B274" t="n">
-        <v>141041</v>
+        <v>172191</v>
       </c>
       <c r="C274" t="s">
         <v>1903</v>
@@ -28218,7 +28218,7 @@
         <v>27388</v>
       </c>
       <c r="B275" t="n">
-        <v>141042</v>
+        <v>172192</v>
       </c>
       <c r="C275" t="s">
         <v>1910</v>
@@ -28368,7 +28368,7 @@
         <v>27388</v>
       </c>
       <c r="B277" t="n">
-        <v>141043</v>
+        <v>172193</v>
       </c>
       <c r="C277" t="s">
         <v>1925</v>
@@ -28443,7 +28443,7 @@
         <v>27388</v>
       </c>
       <c r="B278" t="n">
-        <v>141044</v>
+        <v>140939</v>
       </c>
       <c r="C278" t="s">
         <v>1934</v>
@@ -28512,7 +28512,7 @@
         <v>27388</v>
       </c>
       <c r="B279" t="n">
-        <v>141043</v>
+        <v>140939</v>
       </c>
       <c r="C279" t="s">
         <v>1934</v>
@@ -28652,7 +28652,7 @@
         <v>27388</v>
       </c>
       <c r="B281" t="n">
-        <v>141045</v>
+        <v>172194</v>
       </c>
       <c r="C281" t="s">
         <v>1957</v>
@@ -28802,7 +28802,7 @@
         <v>27388</v>
       </c>
       <c r="B283" t="n">
-        <v>141046</v>
+        <v>172195</v>
       </c>
       <c r="C283" t="s">
         <v>1972</v>
@@ -28877,7 +28877,7 @@
         <v>27388</v>
       </c>
       <c r="B284" t="n">
-        <v>141047</v>
+        <v>172196</v>
       </c>
       <c r="C284" t="s">
         <v>1978</v>
@@ -28952,7 +28952,7 @@
         <v>27388</v>
       </c>
       <c r="B285" t="n">
-        <v>141048</v>
+        <v>172197</v>
       </c>
       <c r="C285" t="s">
         <v>1987</v>
@@ -29165,7 +29165,7 @@
         <v>27388</v>
       </c>
       <c r="B288" t="n">
-        <v>141049</v>
+        <v>172198</v>
       </c>
       <c r="C288" t="s">
         <v>2014</v>
@@ -29465,7 +29465,7 @@
         <v>27388</v>
       </c>
       <c r="B292" t="n">
-        <v>141050</v>
+        <v>172199</v>
       </c>
       <c r="C292" t="s">
         <v>2050</v>
@@ -29540,7 +29540,7 @@
         <v>27388</v>
       </c>
       <c r="B293" t="n">
-        <v>141051</v>
+        <v>172200</v>
       </c>
       <c r="C293" t="s">
         <v>2059</v>
@@ -29765,7 +29765,7 @@
         <v>27388</v>
       </c>
       <c r="B296" t="n">
-        <v>141052</v>
+        <v>172201</v>
       </c>
       <c r="C296" t="s">
         <v>2087</v>
@@ -30140,7 +30140,7 @@
         <v>27388</v>
       </c>
       <c r="B301" t="n">
-        <v>141053</v>
+        <v>172202</v>
       </c>
       <c r="C301" t="s">
         <v>2132</v>
@@ -30215,7 +30215,7 @@
         <v>27388</v>
       </c>
       <c r="B302" t="n">
-        <v>141054</v>
+        <v>172203</v>
       </c>
       <c r="C302" t="s">
         <v>2140</v>
@@ -30290,7 +30290,7 @@
         <v>27388</v>
       </c>
       <c r="B303" t="n">
-        <v>141055</v>
+        <v>172204</v>
       </c>
       <c r="C303" t="s">
         <v>2149</v>
@@ -30515,7 +30515,7 @@
         <v>27388</v>
       </c>
       <c r="B306" t="n">
-        <v>141056</v>
+        <v>172205</v>
       </c>
       <c r="C306" t="s">
         <v>2177</v>
@@ -30740,7 +30740,7 @@
         <v>27388</v>
       </c>
       <c r="B309" t="n">
-        <v>141057</v>
+        <v>172206</v>
       </c>
       <c r="C309" t="s">
         <v>2204</v>
@@ -30890,7 +30890,7 @@
         <v>27388</v>
       </c>
       <c r="B311" t="n">
-        <v>141058</v>
+        <v>172207</v>
       </c>
       <c r="C311" t="s">
         <v>2221</v>
@@ -31190,7 +31190,7 @@
         <v>27388</v>
       </c>
       <c r="B315" t="n">
-        <v>141059</v>
+        <v>172208</v>
       </c>
       <c r="C315" t="s">
         <v>2251</v>
@@ -31340,7 +31340,7 @@
         <v>27388</v>
       </c>
       <c r="B317" t="n">
-        <v>141060</v>
+        <v>172209</v>
       </c>
       <c r="C317" t="s">
         <v>2266</v>
@@ -31415,7 +31415,7 @@
         <v>27388</v>
       </c>
       <c r="B318" t="n">
-        <v>141061</v>
+        <v>172210</v>
       </c>
       <c r="C318" t="s">
         <v>2273</v>
@@ -31490,7 +31490,7 @@
         <v>27388</v>
       </c>
       <c r="B319" t="n">
-        <v>140946</v>
+        <v>140962</v>
       </c>
       <c r="C319" t="s">
         <v>807</v>
@@ -31565,7 +31565,7 @@
         <v>27388</v>
       </c>
       <c r="B320" t="n">
-        <v>141062</v>
+        <v>172211</v>
       </c>
       <c r="C320" t="s">
         <v>2287</v>
@@ -31640,7 +31640,7 @@
         <v>27388</v>
       </c>
       <c r="B321" t="n">
-        <v>141063</v>
+        <v>172212</v>
       </c>
       <c r="C321" t="s">
         <v>2297</v>
@@ -31865,7 +31865,7 @@
         <v>27388</v>
       </c>
       <c r="B324" t="n">
-        <v>141064</v>
+        <v>172213</v>
       </c>
       <c r="C324" t="s">
         <v>2320</v>
@@ -31940,7 +31940,7 @@
         <v>27388</v>
       </c>
       <c r="B325" t="n">
-        <v>141065</v>
+        <v>172214</v>
       </c>
       <c r="C325" t="s">
         <v>2327</v>
@@ -32015,7 +32015,7 @@
         <v>27388</v>
       </c>
       <c r="B326" t="n">
-        <v>141066</v>
+        <v>172215</v>
       </c>
       <c r="C326" t="s">
         <v>2337</v>
@@ -32090,7 +32090,7 @@
         <v>27388</v>
       </c>
       <c r="B327" t="n">
-        <v>141067</v>
+        <v>172216</v>
       </c>
       <c r="C327" t="s">
         <v>2346</v>
@@ -32165,7 +32165,7 @@
         <v>27388</v>
       </c>
       <c r="B328" t="n">
-        <v>141068</v>
+        <v>172217</v>
       </c>
       <c r="C328" t="s">
         <v>2352</v>
@@ -32390,7 +32390,7 @@
         <v>27388</v>
       </c>
       <c r="B331" t="n">
-        <v>141069</v>
+        <v>172218</v>
       </c>
       <c r="C331" t="s">
         <v>2376</v>
@@ -32465,7 +32465,7 @@
         <v>27388</v>
       </c>
       <c r="B332" t="n">
-        <v>141070</v>
+        <v>144512</v>
       </c>
       <c r="C332" t="s">
         <v>2386</v>
@@ -32615,7 +32615,7 @@
         <v>27388</v>
       </c>
       <c r="B334" t="n">
-        <v>141071</v>
+        <v>172219</v>
       </c>
       <c r="C334" t="s">
         <v>2404</v>
@@ -32840,7 +32840,7 @@
         <v>27388</v>
       </c>
       <c r="B337" t="n">
-        <v>141072</v>
+        <v>172220</v>
       </c>
       <c r="C337" t="s">
         <v>2425</v>
@@ -32907,7 +32907,7 @@
         <v>27388</v>
       </c>
       <c r="B338" t="n">
-        <v>141073</v>
+        <v>172221</v>
       </c>
       <c r="C338" t="s">
         <v>2432</v>
@@ -33132,7 +33132,7 @@
         <v>27388</v>
       </c>
       <c r="B341" t="n">
-        <v>141074</v>
+        <v>172222</v>
       </c>
       <c r="C341" t="s">
         <v>2458</v>
@@ -33357,7 +33357,7 @@
         <v>27388</v>
       </c>
       <c r="B344" t="n">
-        <v>141075</v>
+        <v>172223</v>
       </c>
       <c r="C344" t="s">
         <v>2479</v>
@@ -33428,7 +33428,7 @@
         <v>27388</v>
       </c>
       <c r="B345" t="n">
-        <v>141076</v>
+        <v>172224</v>
       </c>
       <c r="C345" t="s">
         <v>2485</v>
@@ -33499,7 +33499,7 @@
         <v>27388</v>
       </c>
       <c r="B346" t="n">
-        <v>141077</v>
+        <v>172225</v>
       </c>
       <c r="C346" t="s">
         <v>2491</v>
@@ -33570,7 +33570,7 @@
         <v>27388</v>
       </c>
       <c r="B347" t="n">
-        <v>141078</v>
+        <v>172226</v>
       </c>
       <c r="C347" t="s">
         <v>2497</v>
@@ -33712,7 +33712,7 @@
         <v>27388</v>
       </c>
       <c r="B349" t="n">
-        <v>141079</v>
+        <v>172227</v>
       </c>
       <c r="C349" t="s">
         <v>2509</v>
@@ -33854,7 +33854,7 @@
         <v>27388</v>
       </c>
       <c r="B351" t="n">
-        <v>141080</v>
+        <v>172228</v>
       </c>
       <c r="C351" t="s">
         <v>2520</v>
@@ -34067,7 +34067,7 @@
         <v>27388</v>
       </c>
       <c r="B354" t="n">
-        <v>141081</v>
+        <v>172229</v>
       </c>
       <c r="C354" t="s">
         <v>2539</v>
@@ -34209,7 +34209,7 @@
         <v>27388</v>
       </c>
       <c r="B356" t="n">
-        <v>141082</v>
+        <v>172230</v>
       </c>
       <c r="C356" t="s">
         <v>2552</v>
@@ -34422,7 +34422,7 @@
         <v>27388</v>
       </c>
       <c r="B359" t="n">
-        <v>141083</v>
+        <v>172231</v>
       </c>
       <c r="C359" t="s">
         <v>2571</v>
@@ -34493,7 +34493,7 @@
         <v>27388</v>
       </c>
       <c r="B360" t="n">
-        <v>141084</v>
+        <v>172232</v>
       </c>
       <c r="C360" t="s">
         <v>2577</v>
@@ -34564,7 +34564,7 @@
         <v>27388</v>
       </c>
       <c r="B361" t="n">
-        <v>141085</v>
+        <v>172233</v>
       </c>
       <c r="C361" t="s">
         <v>2584</v>
@@ -34631,7 +34631,7 @@
         <v>27388</v>
       </c>
       <c r="B362" t="n">
-        <v>141086</v>
+        <v>172234</v>
       </c>
       <c r="C362" t="s">
         <v>2590</v>
@@ -34702,7 +34702,7 @@
         <v>27388</v>
       </c>
       <c r="B363" t="n">
-        <v>141087</v>
+        <v>172235</v>
       </c>
       <c r="C363" t="s">
         <v>2597</v>
@@ -34773,7 +34773,7 @@
         <v>27388</v>
       </c>
       <c r="B364" t="n">
-        <v>141088</v>
+        <v>172236</v>
       </c>
       <c r="C364" t="s">
         <v>2605</v>
@@ -34834,7 +34834,7 @@
         <v>27388</v>
       </c>
       <c r="B365" t="n">
-        <v>141089</v>
+        <v>172237</v>
       </c>
       <c r="C365" t="s">
         <v>2610</v>
@@ -34984,7 +34984,7 @@
         <v>27388</v>
       </c>
       <c r="B367" t="n">
-        <v>141090</v>
+        <v>172238</v>
       </c>
       <c r="C367" t="s">
         <v>2628</v>
@@ -35055,7 +35055,7 @@
         <v>27388</v>
       </c>
       <c r="B368" t="n">
-        <v>141091</v>
+        <v>172239</v>
       </c>
       <c r="C368" t="s">
         <v>2635</v>
@@ -35126,7 +35126,7 @@
         <v>27388</v>
       </c>
       <c r="B369" t="n">
-        <v>141092</v>
+        <v>172240</v>
       </c>
       <c r="C369" t="s">
         <v>2643</v>
@@ -35197,7 +35197,7 @@
         <v>27388</v>
       </c>
       <c r="B370" t="n">
-        <v>141093</v>
+        <v>172241</v>
       </c>
       <c r="C370" t="s">
         <v>2650</v>
@@ -35268,7 +35268,7 @@
         <v>27388</v>
       </c>
       <c r="B371" t="n">
-        <v>141094</v>
+        <v>172242</v>
       </c>
       <c r="C371" t="s">
         <v>2657</v>
@@ -35335,7 +35335,7 @@
         <v>27388</v>
       </c>
       <c r="B372" t="n">
-        <v>141095</v>
+        <v>172243</v>
       </c>
       <c r="C372" t="s">
         <v>2663</v>
@@ -35477,7 +35477,7 @@
         <v>27388</v>
       </c>
       <c r="B374" t="n">
-        <v>141096</v>
+        <v>172244</v>
       </c>
       <c r="C374" t="s">
         <v>2678</v>
@@ -35544,7 +35544,7 @@
         <v>27388</v>
       </c>
       <c r="B375" t="n">
-        <v>141097</v>
+        <v>172245</v>
       </c>
       <c r="C375" t="s">
         <v>2684</v>
@@ -35615,7 +35615,7 @@
         <v>27388</v>
       </c>
       <c r="B376" t="n">
-        <v>141098</v>
+        <v>172246</v>
       </c>
       <c r="C376" t="s">
         <v>2691</v>
@@ -35676,7 +35676,7 @@
         <v>27388</v>
       </c>
       <c r="B377" t="n">
-        <v>141099</v>
+        <v>172247</v>
       </c>
       <c r="C377" t="s">
         <v>2698</v>
@@ -35747,7 +35747,7 @@
         <v>27388</v>
       </c>
       <c r="B378" t="n">
-        <v>141100</v>
+        <v>172248</v>
       </c>
       <c r="C378" t="s">
         <v>2705</v>
@@ -35818,7 +35818,7 @@
         <v>27388</v>
       </c>
       <c r="B379" t="n">
-        <v>141101</v>
+        <v>172249</v>
       </c>
       <c r="C379" t="s">
         <v>2713</v>
@@ -35889,7 +35889,7 @@
         <v>27388</v>
       </c>
       <c r="B380" t="n">
-        <v>141102</v>
+        <v>172250</v>
       </c>
       <c r="C380" t="s">
         <v>2721</v>
@@ -35960,7 +35960,7 @@
         <v>27388</v>
       </c>
       <c r="B381" t="n">
-        <v>141103</v>
+        <v>172251</v>
       </c>
       <c r="C381" t="s">
         <v>2729</v>
@@ -36031,7 +36031,7 @@
         <v>27388</v>
       </c>
       <c r="B382" t="n">
-        <v>141104</v>
+        <v>172252</v>
       </c>
       <c r="C382" t="s">
         <v>2736</v>
@@ -36102,7 +36102,7 @@
         <v>27388</v>
       </c>
       <c r="B383" t="n">
-        <v>141105</v>
+        <v>172253</v>
       </c>
       <c r="C383" t="s">
         <v>2743</v>
@@ -36173,7 +36173,7 @@
         <v>27388</v>
       </c>
       <c r="B384" t="n">
-        <v>141106</v>
+        <v>172254</v>
       </c>
       <c r="C384" t="s">
         <v>2751</v>
@@ -36244,7 +36244,7 @@
         <v>27388</v>
       </c>
       <c r="B385" t="n">
-        <v>141107</v>
+        <v>172255</v>
       </c>
       <c r="C385" t="s">
         <v>2759</v>
@@ -36315,7 +36315,7 @@
         <v>27388</v>
       </c>
       <c r="B386" t="n">
-        <v>141108</v>
+        <v>172256</v>
       </c>
       <c r="C386" t="s">
         <v>2767</v>
@@ -36384,7 +36384,7 @@
         <v>27388</v>
       </c>
       <c r="B387" t="n">
-        <v>141109</v>
+        <v>172257</v>
       </c>
       <c r="C387" t="s">
         <v>2775</v>
@@ -36455,7 +36455,7 @@
         <v>27388</v>
       </c>
       <c r="B388" t="n">
-        <v>141110</v>
+        <v>172258</v>
       </c>
       <c r="C388" t="s">
         <v>2782</v>
@@ -36526,7 +36526,7 @@
         <v>27388</v>
       </c>
       <c r="B389" t="n">
-        <v>141111</v>
+        <v>172259</v>
       </c>
       <c r="C389" t="s">
         <v>2789</v>
@@ -36597,7 +36597,7 @@
         <v>27388</v>
       </c>
       <c r="B390" t="n">
-        <v>141112</v>
+        <v>172260</v>
       </c>
       <c r="C390" t="s">
         <v>2797</v>
@@ -36668,7 +36668,7 @@
         <v>27388</v>
       </c>
       <c r="B391" t="n">
-        <v>141113</v>
+        <v>172261</v>
       </c>
       <c r="C391" t="s">
         <v>2805</v>
@@ -36725,7 +36725,7 @@
         <v>27388</v>
       </c>
       <c r="B392" t="n">
-        <v>141114</v>
+        <v>172262</v>
       </c>
       <c r="C392" t="s">
         <v>2812</v>
@@ -36782,7 +36782,7 @@
         <v>27388</v>
       </c>
       <c r="B393" t="n">
-        <v>141115</v>
+        <v>172263</v>
       </c>
       <c r="C393" t="s">
         <v>2819</v>
